--- a/test/data/foofile.xlsx
+++ b/test/data/foofile.xlsx
@@ -466,7 +466,7 @@
         <v>fourth</v>
       </c>
       <c r="B5" t="str">
-        <v>boat</v>
+        <v xml:space="preserve"> boat </v>
       </c>
       <c r="C5">
         <v>0</v>

--- a/test/data/foofile.xlsx
+++ b/test/data/foofile.xlsx
@@ -1,19 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projectsrc\@dictadata\storage-junctions\test\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+  </bookViews>
   <sheets>
     <sheet name="foo" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+  <si>
+    <t>Foo</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>Baz</t>
+  </si>
+  <si>
+    <t>Fobe</t>
+  </si>
+  <si>
+    <t>Dt Test</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>row your boat</t>
+  </si>
+  <si>
+    <t>fourth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> boat </t>
+  </si>
+  <si>
+    <t>2018-10-10T14:13:30.500Z</t>
+  </si>
+  <si>
+    <t>fifth</t>
+  </si>
+  <si>
+    <t>downstream</t>
+  </si>
+  <si>
+    <t>sixth</t>
+  </si>
+  <si>
+    <t>seventh</t>
+  </si>
+  <si>
+    <t>big data</t>
+  </si>
+  <si>
+    <t>2018-10-10T14:13:30.000-05:00</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -51,6 +123,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -65,39 +145,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -132,7 +212,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,237 +256,187 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Foo</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Bar</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Baz</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Fobe</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Dt Test</v>
-      </c>
-      <c r="F1" t="str">
-        <v>enabled</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>first</v>
-      </c>
-      <c r="B2" t="str">
-        <v>row</v>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2">
         <v>123</v>
@@ -414,19 +444,19 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="d">
-        <v>2018-10-07T00:00:00.000Z</v>
+      <c r="E2" s="1">
+        <v>43380</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>second</v>
-      </c>
-      <c r="B3" t="str">
-        <v>row</v>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
         <v>456</v>
@@ -434,19 +464,19 @@
       <c r="D3">
         <v>2.1</v>
       </c>
-      <c r="E3" s="1" t="d">
-        <v>2018-10-07T00:00:00.000Z</v>
+      <c r="E3" s="1">
+        <v>43380</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>third</v>
-      </c>
-      <c r="B4" t="str">
-        <v>row your boat</v>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4">
         <v>789</v>
@@ -454,19 +484,19 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="d">
-        <v>2018-10-18T00:00:00.000Z</v>
+      <c r="E4" s="1">
+        <v>43391</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>fourth</v>
-      </c>
-      <c r="B5" t="str">
-        <v xml:space="preserve"> boat </v>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -474,19 +504,19 @@
       <c r="D5">
         <v>4.3</v>
       </c>
-      <c r="E5" t="str">
-        <v>2018-10-10T14:13:30.500Z</v>
+      <c r="E5" t="s">
+        <v>13</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>fifth</v>
-      </c>
-      <c r="B6" t="str">
-        <v>downstream</v>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
       </c>
       <c r="C6">
         <v>-12</v>
@@ -494,24 +524,24 @@
       <c r="D6">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="d">
-        <v>2018-10-18T00:00:00.000Z</v>
+      <c r="E6" s="1">
+        <v>43391</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>sixth</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>seventh</v>
-      </c>
-      <c r="B8" t="str">
-        <v>big data</v>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -519,8 +549,8 @@
       <c r="D8">
         <v>4.3</v>
       </c>
-      <c r="E8" t="str">
-        <v>2018-10-10T14:13:30.000-05:00</v>
+      <c r="E8" t="s">
+        <v>19</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -529,7 +559,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F8"/>
+    <ignoredError sqref="A1:F8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>